--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E5C22-FA72-4EE6-A5BF-21C9EAC52A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5235E69-CF41-4277-840A-E58A866EE6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="1890" windowWidth="17085" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="2430" windowWidth="21195" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>week1</t>
   </si>
@@ -123,21 +123,28 @@
     <t>hour 20</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Read "What is the MVC pattern?"
-2. Create new Github repo and folder 3. Install Visual Studio 2019 and .NET Core 3.1 SDK
-4. Create individul time sheet </t>
+    <t>1. Fix Source Tree credential problem(unsuccessfull)</t>
+  </si>
+  <si>
+    <t>1. Fix GitHub Desktop credential problem(unsuccessfull)</t>
   </si>
   <si>
     <t>1. Install SQL Express
 2. Install Resharper
-3. Install Source Tree
-4.</t>
-  </si>
-  <si>
-    <t>1. Fix Source Tree credential problem(unsuccessfull)</t>
-  </si>
-  <si>
-    <t>2. Fix GitHub credential problem(unsuccessfull)</t>
+3. Install Source Tree(credential problem)
+4. Install GitHub Desktop(credential problem)</t>
+  </si>
+  <si>
+    <t>1. Fix GitHub credential problem(successfull)
+2. Complete step 1 "Get started"
+3. Complete step 2 "Add a controller"
+4. Complete step 3 "Add a view"</t>
+  </si>
+  <si>
+    <t>1. Read "What is the MVC pattern?"
+2. Create new Github repo and folder 3. Install Visual Studio 2019 and .NET Core 3.1 SDK
+4. Create individul time sheet 
+5. Join the WhatsApp group</t>
   </si>
 </sst>
 </file>
@@ -153,15 +160,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,19 +194,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -216,187 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>23834</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6032</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>742951</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837D0687-7B6E-465B-BA1E-7A7677532793}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2909909" y="1238251"/>
-          <a:ext cx="3030198" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>23834</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>933451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6032</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14368E51-5B1A-44C8-BC87-37AA85AB82B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2909909" y="1219201"/>
-          <a:ext cx="3030198" cy="800099"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>51948</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>198623</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A7A757-7139-42A5-8DF4-55487A6055BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4157223" y="2333626"/>
-          <a:ext cx="5023475" cy="809624"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1000124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0D1589-47B4-43A0-A05B-55FDFB746941}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552825" y="3143251"/>
-          <a:ext cx="2466975" cy="904873"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,7 +494,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,159 +503,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5235E69-CF41-4277-840A-E58A866EE6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFBB85D-3CB2-4209-83DD-CC02241940DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4725" yWindow="2430" windowWidth="21195" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>week1</t>
   </si>
@@ -135,16 +135,20 @@
 4. Install GitHub Desktop(credential problem)</t>
   </si>
   <si>
-    <t>1. Fix GitHub credential problem(successfull)
-2. Complete step 1 "Get started"
-3. Complete step 2 "Add a controller"
-4. Complete step 3 "Add a view"</t>
-  </si>
-  <si>
     <t>1. Read "What is the MVC pattern?"
 2. Create new Github repo and folder 3. Install Visual Studio 2019 and .NET Core 3.1 SDK
 4. Create individul time sheet 
 5. Join the WhatsApp group</t>
+  </si>
+  <si>
+    <t>1. Fix GitHub credential problem(successfull)
+2. Complete step 1 "Get started"
+3. Complete step 2 "Add a controller"
+4. Complete part of  step 3 "Add a view"</t>
+  </si>
+  <si>
+    <t>1. Complete step3 "Add a view"
+2. Complete step4 "Add a model"</t>
   </si>
 </sst>
 </file>
@@ -194,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -207,9 +211,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -572,19 +573,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFBB85D-3CB2-4209-83DD-CC02241940DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB8109-92CD-4BEE-A2A2-4F8AE75B7A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="2430" windowWidth="21195" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1680" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>week1</t>
   </si>
@@ -149,6 +149,14 @@
   <si>
     <t>1. Complete step3 "Add a view"
 2. Complete step4 "Add a model"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Complete step5 "Work with a database"
+2. Complete part of step 6 "Controller actions and views" </t>
+  </si>
+  <si>
+    <t>1. Complete step 6 "Controller actions and views" 
+2. Complete step 7 "Add search"</t>
   </si>
 </sst>
 </file>
@@ -495,7 +503,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,17 +597,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB8109-92CD-4BEE-A2A2-4F8AE75B7A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F06D3E-511D-4C79-AA23-8483FC5A65EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1680" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11175" yWindow="915" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>week1</t>
   </si>
@@ -157,6 +157,11 @@
   <si>
     <t>1. Complete step 6 "Controller actions and views" 
 2. Complete step 7 "Add search"</t>
+  </si>
+  <si>
+    <t>1. Complete step 8 " Add a new field"
+2. Complete step 9 " Add validation"
+3. Complete step 9 " Examine Details and Delete"</t>
   </si>
 </sst>
 </file>
@@ -502,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,11 +618,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F06D3E-511D-4C79-AA23-8483FC5A65EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAC38B-A5BE-4CE6-9F87-3664980C57F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="915" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="765" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>week1</t>
   </si>
@@ -162,6 +162,14 @@
     <t>1. Complete step 8 " Add a new field"
 2. Complete step 9 " Add validation"
 3. Complete step 9 " Examine Details and Delete"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Read lecture slides
+2. Browse C# documentation </t>
+  </si>
+  <si>
+    <t>1. Browse C# documentation
+2. Watch C# introduction video 1 - 19</t>
   </si>
 </sst>
 </file>
@@ -508,7 +516,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,17 +634,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAC38B-A5BE-4CE6-9F87-3664980C57F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4358DCD7-B5A6-4486-8895-2CDB9B2332D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="765" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2190" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>week1</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>hour 20</t>
-  </si>
-  <si>
-    <t>1. Fix Source Tree credential problem(unsuccessfull)</t>
-  </si>
-  <si>
-    <t>1. Fix GitHub Desktop credential problem(unsuccessfull)</t>
   </si>
   <si>
     <t>1. Install SQL Express
@@ -141,35 +135,59 @@
 5. Join the WhatsApp group</t>
   </si>
   <si>
-    <t>1. Fix GitHub credential problem(successfull)
+    <t>1. Complete step3 "Add a view"
+2. Complete step4 "Add a model"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Complete step5 "Work with a database"
+2. Complete part of step 6 "Controller actions and views" </t>
+  </si>
+  <si>
+    <t>1. Complete step 6 "Controller actions and views" 
+2. Complete step 7 "Add search"</t>
+  </si>
+  <si>
+    <t>1. Complete step 8 " Add a new field"
+2. Complete step 9 " Add validation"
+3. Complete step 9 " Examine Details and Delete"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Read lecture slides
+2. Browse C# documentation </t>
+  </si>
+  <si>
+    <t>1. Browse C# documentation
+2. Watch C# introduction video 1 - 19</t>
+  </si>
+  <si>
+    <t>1. Fix GitHub credential problem(successful)
 2. Complete step 1 "Get started"
 3. Complete step 2 "Add a controller"
 4. Complete part of  step 3 "Add a view"</t>
   </si>
   <si>
-    <t>1. Complete step3 "Add a view"
-2. Complete step4 "Add a model"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Complete step5 "Work with a database"
-2. Complete part of step 6 "Controller actions and views" </t>
-  </si>
-  <si>
-    <t>1. Complete step 6 "Controller actions and views" 
-2. Complete step 7 "Add search"</t>
-  </si>
-  <si>
-    <t>1. Complete step 8 " Add a new field"
-2. Complete step 9 " Add validation"
-3. Complete step 9 " Examine Details and Delete"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Read lecture slides
-2. Browse C# documentation </t>
-  </si>
-  <si>
-    <t>1. Browse C# documentation
-2. Watch C# introduction video 1 - 19</t>
+    <t>1. Fix GitHub Desktop credential problem(unsuccessful)</t>
+  </si>
+  <si>
+    <t>1. Fix Source Tree credential problem(unsuccessful)</t>
+  </si>
+  <si>
+    <t>1. Reading lecture notes in Teams.
+2. Discuss team meeting schedual and contents.
+3. Installing "Microsoft SQL Server Management Studio"
+4. Watching lecture video. 
+3. Fixing database connection problem (successful)
+5. Fixing stucking package manager probelem (unsuccessful).
+6. Fixing "The file is locked by: .NET Core Host (1828)" problem (successful).
+7. Fixing "type requires a primary key" problem (successful).
+8. Completing the first part of week 2 task.</t>
+  </si>
+  <si>
+    <t>1. Reading "Tag Helpers"</t>
+  </si>
+  <si>
+    <t>1. Completing the second part of week 2 task.（Not finished）
+2. Fixing "EmailAddressAttribute" issue</t>
   </si>
 </sst>
 </file>
@@ -219,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -232,6 +250,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,13 +542,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -567,47 +595,58 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -615,7 +654,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -623,38 +665,43 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -705,6 +752,10 @@
       <c r="B21" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C8:C13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4358DCD7-B5A6-4486-8895-2CDB9B2332D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B77CF02-BC26-4017-B9B0-C5A4EEDF888D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2190" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,16 +216,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,11 +245,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -254,14 +282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +677,7 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -667,7 +699,7 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -676,7 +708,7 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -685,7 +717,7 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -694,14 +726,14 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GoogleDrive\study\2020\Semester 2\HIT 339\GitRepo\HIT339_Qingyuan_Zeng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B77CF02-BC26-4017-B9B0-C5A4EEDF888D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D0D0F-01CE-4D36-B263-59D6B2196616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1665" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>week1</t>
   </si>
@@ -189,12 +189,29 @@
     <t>1. Completing the second part of week 2 task.（Not finished）
 2. Fixing "EmailAddressAttribute" issue</t>
   </si>
+  <si>
+    <t>1. Completing admin movie task (finished)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Read "Web services vs Web-Api".
+2. Read "Ef discussion".
+3. Read "LINQ".
+4. Completing "Creating web api".
+</t>
+  </si>
+  <si>
+    <t>1. Completing "Creating javascript app using the api's".
+2. Read "swagger"</t>
+  </si>
+  <si>
+    <t>1. Whatching video and learning how to make documentation using 'Swagger'(unfinished)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +240,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +259,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -260,12 +289,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -279,16 +317,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,13 +622,14 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,6 +680,9 @@
       <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -641,7 +692,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -651,6 +702,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -660,6 +712,9 @@
         <v>41</v>
       </c>
       <c r="C5" s="6"/>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -669,6 +724,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -677,9 +733,10 @@
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -691,6 +748,9 @@
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -699,7 +759,10 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -708,7 +771,8 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -717,7 +781,7 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -726,14 +790,14 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -784,9 +848,12 @@
       <c r="B21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D0D0F-01CE-4D36-B263-59D6B2196616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB902D7-E5FF-4F17-AE74-FA9158D62346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1665" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="750" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>week1</t>
   </si>
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>1. Whatching video and learning how to make documentation using 'Swagger'(unfinished)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Read assignment requirements and play with the sample code
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Research for how to create an 'User Details' page(not finished)
+2. Complete identity scaffolding
+3. Research for "shopping cart"(not finished)
+</t>
+  </si>
+  <si>
+    <t>1. Create web application with web authentification
+2. Create sales and items page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Add search functionnality to 'items' page
+</t>
   </si>
 </sst>
 </file>
@@ -303,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -320,6 +338,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -327,16 +354,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,15 +642,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,7 +660,7 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -677,10 +698,10 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -691,8 +712,8 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -701,8 +722,8 @@
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -711,8 +732,8 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -723,8 +744,8 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -736,7 +757,7 @@
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -745,10 +766,10 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -759,8 +780,8 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -771,45 +792,58 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -848,7 +882,8 @@
       <c r="B21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="D2:D4"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB902D7-E5FF-4F17-AE74-FA9158D62346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23A27E-6E65-4569-AD64-A2CED066DD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="750" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="2250" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>week1</t>
   </si>
@@ -223,6 +231,20 @@
   <si>
     <t xml:space="preserve">1. Add search functionnality to 'items' page
 </t>
+  </si>
+  <si>
+    <t>1. Read "How to Use ViewModel in Asp.Net MVC with Example"
+2. Read "Create a complex data model - ASP.NET MVC with EF Core"
+3. Complete task 1 in week 4 (Re-create week-2 Task and add the following changes
+-Use  view models instead of ef models
+-update the controllers 
+-update views to use view models)</t>
+  </si>
+  <si>
+    <t>1. Watching Angular tutorials
+2. Building environment for Angular
+3. Read materials about Angular
+4. Complete task 2 in week 4</t>
   </si>
 </sst>
 </file>
@@ -321,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -344,6 +366,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -358,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +682,7 @@
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,7 +695,7 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -698,11 +730,14 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -712,8 +747,9 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -722,8 +758,9 @@
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -732,20 +769,24 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -757,7 +798,8 @@
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -766,12 +808,13 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -780,10 +823,11 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -792,8 +836,9 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -802,10 +847,11 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -814,7 +860,7 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
@@ -824,7 +870,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
@@ -834,16 +880,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -882,13 +928,15 @@
       <c r="B21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="E2:E5"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E6:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23A27E-6E65-4569-AD64-A2CED066DD1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2DB42-3E2E-4A98-803B-871749DD6CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="2250" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="975" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>week1</t>
   </si>
@@ -245,6 +245,9 @@
 2. Building environment for Angular
 3. Read materials about Angular
 4. Complete task 2 in week 4</t>
+  </si>
+  <si>
+    <t>1. Create item</t>
   </si>
 </sst>
 </file>
@@ -673,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +867,9 @@
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="E12" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -874,6 +880,7 @@
       <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -883,6 +890,7 @@
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -890,45 +898,49 @@
       </c>
       <c r="B15" s="1"/>
       <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C2:C6"/>
@@ -937,6 +949,7 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E6:E11"/>
+    <mergeCell ref="E12:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2DB42-3E2E-4A98-803B-871749DD6CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B715FE3-2AD6-485F-BBBE-31968D67A601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="975" windowWidth="21945" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="150" windowWidth="16770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>week1</t>
   </si>
@@ -247,7 +247,48 @@
 4. Complete task 2 in week 4</t>
   </si>
   <si>
-    <t>1. Create item</t>
+    <t>hour 21</t>
+  </si>
+  <si>
+    <t>hour 22</t>
+  </si>
+  <si>
+    <t>hour 23</t>
+  </si>
+  <si>
+    <t>hour 24</t>
+  </si>
+  <si>
+    <t>hour 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create assignment 1 project using Angular
+2. Install Visual Studio Code and useful extentions
+3. Create component for a item card 
+4. Create component for item list 
+5. Add css to item card using bootstrap
+6. create service to make HTTP calls to retrieve data for each item card
+7. Modify HTTP data using Pipe
+8. Create routes for items in the navigation menu
+9. Create new component for displaying details of each item
+10. create next page button using event binding
+11. Apply routing features to display different list of items based on different page urls
+12. Apply defult picture for items with no image property
+13. Create a new component for adding new items
+14. Create a form for the new component using template driven approach
+15. Apply validations to the form
+16. Create animations and error notifacations that will display when inputs is not valid
+17. Create a new component for user registration
+18. Create a form for the new component using reactive form approach
+19. apply validations
+20. Create animations and error notifacations that will display when inputs is not valid using alertify
+21. Organize the code for the form using 'FormBuilder'
+22. Create a new service for adding new account information from the registration form to the local storage
+</t>
+  </si>
+  <si>
+    <t>1. Organize the project, removing identity features and other unnecessary code that were auto-generated by visual studio 2019
+2. Fix bootstrap problem and other startup issues after the operation</t>
   </si>
 </sst>
 </file>
@@ -346,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -392,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -674,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E18"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +732,7 @@
     <col min="5" max="5" width="31.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -726,7 +770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -743,7 +787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -754,7 +798,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -765,7 +809,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -778,7 +822,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -791,7 +835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -804,7 +848,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -819,7 +863,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -832,7 +876,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -843,7 +887,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -856,7 +900,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -867,11 +911,11 @@
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="E12" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -880,9 +924,9 @@
       <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -890,57 +934,93 @@
       <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C2:C6"/>
@@ -949,7 +1029,7 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E6:E11"/>
-    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="E12:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B715FE3-2AD6-485F-BBBE-31968D67A601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46CD8F-8A56-437C-92E7-94FA878FB8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="150" windowWidth="16770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="15" windowWidth="20850" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>week1</t>
   </si>
@@ -196,9 +196,6 @@
   <si>
     <t>1. Completing the second part of week 2 task.（Not finished）
 2. Fixing "EmailAddressAttribute" issue</t>
-  </si>
-  <si>
-    <t>1. Completing admin movie task (finished)</t>
   </si>
   <si>
     <t xml:space="preserve">1. Read "Web services vs Web-Api".
@@ -288,7 +285,20 @@
   </si>
   <si>
     <t>1. Organize the project, removing identity features and other unnecessary code that were auto-generated by visual studio 2019
+2. Fix .git problem
 2. Fix bootstrap problem and other startup issues after the operation</t>
+  </si>
+  <si>
+    <t>1. Completing admin movie task (finished)+A2:D7B2:D7C2:D7D2D2:E11D2:F11</t>
+  </si>
+  <si>
+    <t>1. Create login and logout functionalities
+2. create login component
+3. Create authentication service
+4. Apply token to track the loggin status 
+5. Apply dynamic changing status to the navagation menu
+6. Install Ngx-bootstrap
+7. Add a dropdown menu to display the user profile section at the navigation bar</t>
   </si>
 </sst>
 </file>
@@ -387,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -417,6 +427,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -435,7 +448,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -720,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +743,7 @@
     <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,14 +791,17 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>55</v>
+      <c r="D2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,9 +811,10 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -805,9 +823,10 @@
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -816,11 +835,11 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -829,10 +848,10 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
-        <v>54</v>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,8 +864,8 @@
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -855,13 +874,13 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -870,11 +889,11 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -883,9 +902,9 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -894,11 +913,11 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -907,12 +926,12 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,106 +939,107 @@
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="D14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="16"/>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="E26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="D14:D15"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46CD8F-8A56-437C-92E7-94FA878FB8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217A45B-152D-4633-AA81-78E03FBC160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="15" windowWidth="20850" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="855" windowWidth="21270" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>week1</t>
   </si>
@@ -299,6 +299,21 @@
 5. Apply dynamic changing status to the navagation menu
 6. Install Ngx-bootstrap
 7. Add a dropdown menu to display the user profile section at the navigation bar</t>
+  </si>
+  <si>
+    <t>1. Combine Angular project with Entity Framwork</t>
+  </si>
+  <si>
+    <t>1. Improve add item page and connect it with local database using entity framwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Update item detail component </t>
+  </si>
+  <si>
+    <t>1. Add user profile where user information can be modified</t>
+  </si>
+  <si>
+    <t>1. Update CRUD functionality to identity and items</t>
   </si>
 </sst>
 </file>
@@ -397,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -427,7 +442,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -449,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +762,7 @@
     <col min="4" max="4" width="39.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +781,7 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -802,6 +821,9 @@
       </c>
       <c r="F2" s="11" t="s">
         <v>63</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,6 +837,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -827,6 +850,9 @@
       <c r="D4" s="14"/>
       <c r="E4" s="11"/>
       <c r="F4" s="17"/>
+      <c r="G4" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -840,6 +866,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="11"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -853,6 +880,7 @@
       <c r="E6" s="16" t="s">
         <v>53</v>
       </c>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -866,6 +894,7 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -881,6 +910,9 @@
         <v>47</v>
       </c>
       <c r="E8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -894,6 +926,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -905,6 +938,9 @@
       <c r="C10" s="13"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
+      <c r="G10" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -918,6 +954,9 @@
         <v>49</v>
       </c>
       <c r="E11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -930,9 +969,10 @@
       <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -943,7 +983,8 @@
       <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="18"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -953,7 +994,8 @@
       <c r="D14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -961,73 +1003,74 @@
       </c>
       <c r="B15" s="1"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1035,21 +1078,25 @@
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G7"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="E12:E24"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:G15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="E12:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217A45B-152D-4633-AA81-78E03FBC160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94D945-A52C-42CB-B5EC-9A31EE8B657A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="855" windowWidth="21270" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -458,15 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,7 +752,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +763,7 @@
     <col min="5" max="5" width="31.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,19 +811,19 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -833,11 +834,11 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -846,11 +847,11 @@
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -861,12 +862,12 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -875,12 +876,12 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -892,9 +893,9 @@
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -903,14 +904,14 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -921,12 +922,12 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -935,9 +936,9 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
         <v>67</v>
       </c>
@@ -949,12 +950,12 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -965,112 +966,112 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="18"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1078,10 +1079,16 @@
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="F2:F4"/>
@@ -1091,12 +1098,6 @@
     <mergeCell ref="E12:E24"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G11:G15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94D945-A52C-42CB-B5EC-9A31EE8B657A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217A45B-152D-4633-AA81-78E03FBC160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="855" windowWidth="21270" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,28 +445,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,7 +752,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,6 @@
     <col min="5" max="5" width="31.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,19 +810,19 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -834,11 +833,11 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -847,11 +846,11 @@
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -862,12 +861,12 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -876,12 +875,12 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -893,9 +892,9 @@
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -904,14 +903,14 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -922,12 +921,12 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -936,9 +935,9 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
       <c r="G10" s="10" t="s">
         <v>67</v>
       </c>
@@ -950,12 +949,12 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -966,112 +965,112 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="G13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="G14" s="11"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1079,16 +1078,10 @@
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="F2:F4"/>
@@ -1098,6 +1091,12 @@
     <mergeCell ref="E12:E24"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G11:G15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Timesheet.xlsx
+++ b/Individual Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\HIT339_Qingyuan_Zeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217A45B-152D-4633-AA81-78E03FBC160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29DDD3-680C-4F03-9D7C-6AF361B215FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="855" windowWidth="21270" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="1215" windowWidth="22800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>week1</t>
   </si>
@@ -289,9 +289,6 @@
 2. Fix bootstrap problem and other startup issues after the operation</t>
   </si>
   <si>
-    <t>1. Completing admin movie task (finished)+A2:D7B2:D7C2:D7D2D2:E11D2:F11</t>
-  </si>
-  <si>
     <t>1. Create login and logout functionalities
 2. create login component
 3. Create authentication service
@@ -314,6 +311,21 @@
   </si>
   <si>
     <t>1. Update CRUD functionality to identity and items</t>
+  </si>
+  <si>
+    <t>1. Completing admin movie task (finished)</t>
+  </si>
+  <si>
+    <t>1. Attempt to create a shopping cart (unsuccessful as I could not figure out how to make an api 'put' request to an object with Icollection fild such as "Icollection&lt;item&gt; items" in "shoppingCart.cs")</t>
+  </si>
+  <si>
+    <t>1. Try to revert git commit as a deadly error occurred(unsuccessful due to unknown conflict files)
+2. Try to recover the project by building a new one(successful)</t>
+  </si>
+  <si>
+    <t>1. Add autentication method so that only the item creator can edit the item
+2. Remove redundant codes 
+3. Add comments</t>
   </si>
 </sst>
 </file>
@@ -412,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -445,7 +457,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -459,14 +480,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +778,7 @@
     <col min="5" max="5" width="31.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +800,7 @@
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -810,20 +826,23 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>64</v>
+      <c r="H2" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -833,11 +852,12 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -846,13 +866,14 @@
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -861,12 +882,15 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -875,12 +899,13 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -892,9 +917,10 @@
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -903,15 +929,15 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>66</v>
+      <c r="E8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,12 +947,12 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -935,11 +961,11 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,13 +975,13 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="G11" s="16" t="s">
-        <v>68</v>
+      <c r="E11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,123 +991,138 @@
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="18"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="14"/>
+      <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="14"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="14"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="14"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="14"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="F2:F4"/>
@@ -1091,12 +1132,7 @@
     <mergeCell ref="E12:E24"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G11:G15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G16:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
